--- a/excel/tolls_202310.xlsx
+++ b/excel/tolls_202310.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>186</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>119</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>714</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>293</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>206</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>136</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>147</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>973</t>
         </is>
       </c>
     </row>
@@ -2936,17 +2936,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>161</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>623</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>513</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>237</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3866,17 +3866,17 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>1118</t>
         </is>
       </c>
     </row>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>194</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>440</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1010</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>345</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>119</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>158</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>330</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>595</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>641</t>
         </is>
       </c>
     </row>
@@ -6294,27 +6294,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>902</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>905</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>1,069</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>136</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>827</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6339,17 +6339,17 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>940</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>888</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>882</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -6364,27 +6364,27 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>851</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>723</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>786</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>321</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>260</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>6,340</t>
+          <t>9,714</t>
         </is>
       </c>
     </row>
